--- a/fuentes/contenidos/grado09/guion04/SolicitudGrafica CN_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/SolicitudGrafica CN_09_04_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
   <si>
     <t>Fecha:</t>
   </si>
@@ -518,9 +518,6 @@
   </si>
   <si>
     <t>Cuaderno de Estudio</t>
-  </si>
-  <si>
-    <t>https://www.flickr.com/photos/ferranp/4929935738</t>
   </si>
   <si>
     <t>Fotografía</t>
@@ -1492,6 +1489,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,9 +1576,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2478,7 +2475,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2516,14 +2513,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="90"/>
+      <c r="F2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="11"/>
@@ -2533,14 +2530,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="91">
         <v>9</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81">
+      <c r="D3" s="92"/>
+      <c r="F3" s="84">
         <v>42227</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="11"/>
@@ -2550,10 +2547,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="5"/>
       <c r="F4" s="33" t="s">
         <v>55</v>
@@ -2571,10 +2568,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="5"/>
       <c r="F5" s="31" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2624,12 +2621,12 @@
       <c r="C8" s="63"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="64"/>
       <c r="K8" s="65"/>
       <c r="L8" s="2"/>
@@ -2678,18 +2675,18 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>150</v>
+      <c r="B10" s="81">
+        <v>189963272</v>
       </c>
       <c r="C10" s="69" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>151</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>152</v>
       </c>
       <c r="F10" s="70" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2708,7 +2705,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="71"/>
     </row>
@@ -2725,10 +2722,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="70" t="s">
         <v>151</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>152</v>
       </c>
       <c r="F11" s="70" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2747,7 +2744,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K11" s="58"/>
     </row>
@@ -2757,17 +2754,17 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2786,10 +2783,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="71" t="s">
         <v>157</v>
-      </c>
-      <c r="K12" s="71" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="237" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,17 +2795,17 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2827,10 +2824,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2838,7 +2835,7 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="79">
         <v>94495162</v>
       </c>
       <c r="C14" s="69" t="str">
@@ -2846,10 +2843,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="70" t="s">
         <v>151</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>152</v>
       </c>
       <c r="F14" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2868,7 +2865,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" s="71"/>
     </row>
@@ -2877,18 +2874,18 @@
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>163</v>
+      <c r="B15" s="80" t="s">
+        <v>162</v>
       </c>
       <c r="C15" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2907,10 +2904,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="73" t="s">
         <v>161</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2918,18 +2915,18 @@
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="111" t="s">
-        <v>164</v>
+      <c r="B16" s="80" t="s">
+        <v>163</v>
       </c>
       <c r="C16" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2948,7 +2945,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" s="75"/>
     </row>
@@ -2958,17 +2955,17 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="69" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2987,10 +2984,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K17" s="73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2998,7 +2995,7 @@
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="81">
         <v>72094063</v>
       </c>
       <c r="C18" s="69" t="str">
@@ -3006,10 +3003,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>151</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>152</v>
       </c>
       <c r="F18" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3028,7 +3025,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" s="73"/>
     </row>
@@ -3044,10 +3041,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="70" t="s">
         <v>151</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>152</v>
       </c>
       <c r="F19" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3066,7 +3063,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K19" s="75"/>
     </row>
@@ -5444,25 +5441,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5470,11 +5467,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="26"/>
       <c r="H3" s="18" t="s">
         <v>18</v>
@@ -5525,11 +5522,11 @@
       <c r="C5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="26"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5574,12 +5571,12 @@
       <c r="C7" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="18" t="s">
         <v>24</v>
       </c>
@@ -5673,14 +5670,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="I13" s="18" t="s">
         <v>33</v>
       </c>
@@ -5713,12 +5710,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="J15" s="18">
         <v>12</v>
       </c>
@@ -5758,12 +5755,12 @@
       <c r="C17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="J17" s="18">
         <v>14</v>
       </c>
@@ -5779,12 +5776,12 @@
       <c r="C18" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="J18" s="18">
         <v>15</v>
       </c>
@@ -6155,8 +6152,10 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6176,41 +6175,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="35" t="s">
         <v>65</v>
       </c>
